--- a/Data_frame/balancos_definitivos/TENE7.xlsx
+++ b/Data_frame/balancos_definitivos/TENE7.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14637</v>
+        <v>8204</v>
       </c>
       <c r="C2" t="n">
-        <v>8301</v>
+        <v>8146</v>
       </c>
       <c r="D2" t="n">
-        <v>8242</v>
+        <v>8097</v>
       </c>
       <c r="E2" t="n">
-        <v>8204</v>
+        <v>8047</v>
       </c>
       <c r="F2" t="n">
-        <v>8146</v>
+        <v>7998</v>
       </c>
       <c r="G2" t="n">
-        <v>8097</v>
+        <v>7947</v>
       </c>
       <c r="H2" t="n">
-        <v>8047</v>
+        <v>7896</v>
       </c>
       <c r="I2" t="n">
-        <v>7998</v>
+        <v>7847</v>
       </c>
       <c r="J2" t="n">
-        <v>7947</v>
+        <v>7798</v>
       </c>
       <c r="K2" t="n">
-        <v>7896</v>
+        <v>7760</v>
       </c>
       <c r="L2" t="n">
-        <v>7847</v>
+        <v>7713</v>
       </c>
       <c r="M2" t="n">
-        <v>7798</v>
+        <v>7663</v>
       </c>
       <c r="N2" t="n">
-        <v>7760</v>
+        <v>7609</v>
       </c>
       <c r="O2" t="n">
-        <v>7713</v>
+        <v>7565</v>
       </c>
       <c r="P2" t="n">
-        <v>7663</v>
+        <v>7520</v>
       </c>
       <c r="Q2" t="n">
-        <v>7609</v>
+        <v>7464</v>
       </c>
       <c r="R2" t="n">
-        <v>7565</v>
+        <v>7413</v>
       </c>
       <c r="S2" t="n">
-        <v>7520</v>
+        <v>7393</v>
       </c>
       <c r="T2" t="n">
-        <v>7464</v>
+        <v>7342</v>
       </c>
       <c r="U2" t="n">
-        <v>7413</v>
+        <v>7294</v>
       </c>
       <c r="V2" t="n">
-        <v>7393</v>
+        <v>7245</v>
       </c>
       <c r="W2" t="n">
-        <v>7342</v>
+        <v>7195</v>
       </c>
       <c r="X2" t="n">
-        <v>7294</v>
+        <v>7145</v>
       </c>
       <c r="Y2" t="n">
-        <v>7245</v>
+        <v>7696</v>
       </c>
       <c r="Z2" t="n">
-        <v>7195</v>
+        <v>7899</v>
       </c>
       <c r="AA2" t="n">
-        <v>7145</v>
+        <v>7827</v>
       </c>
       <c r="AB2" t="n">
-        <v>7696</v>
+        <v>7777</v>
       </c>
       <c r="AC2" t="n">
-        <v>7899</v>
+        <v>7706</v>
       </c>
       <c r="AD2" t="n">
-        <v>7827</v>
+        <v>7635</v>
       </c>
       <c r="AE2" t="n">
-        <v>7777</v>
+        <v>7570</v>
       </c>
       <c r="AF2" t="n">
-        <v>7706</v>
+        <v>7507</v>
       </c>
       <c r="AG2" t="n">
-        <v>7635</v>
+        <v>7.376</v>
       </c>
       <c r="AH2" t="n">
-        <v>7570</v>
+        <v>20014</v>
       </c>
       <c r="AI2" t="n">
-        <v>7507</v>
+        <v>19947</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.376</v>
+        <v>20371</v>
       </c>
       <c r="AK2" t="n">
-        <v>20014</v>
+        <v>25992</v>
       </c>
       <c r="AL2" t="n">
-        <v>19947</v>
+        <v>22257</v>
       </c>
       <c r="AM2" t="n">
-        <v>20371</v>
+        <v>18980</v>
       </c>
       <c r="AN2" t="n">
-        <v>25992</v>
+        <v>17480</v>
       </c>
       <c r="AO2" t="n">
-        <v>22257</v>
+        <v>17428</v>
       </c>
       <c r="AP2" t="n">
-        <v>18980</v>
+        <v>17368</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17480</v>
+        <v>17311</v>
       </c>
       <c r="AR2" t="n">
-        <v>17428</v>
+        <v>17254</v>
       </c>
       <c r="AS2" t="n">
-        <v>17368</v>
+        <v>17195</v>
       </c>
       <c r="AT2" t="n">
-        <v>17311</v>
+        <v>17411</v>
       </c>
       <c r="AU2" t="n">
-        <v>17254</v>
+        <v>16681</v>
       </c>
       <c r="AV2" t="n">
-        <v>17195</v>
+        <v>16590</v>
       </c>
       <c r="AW2" t="n">
-        <v>17411</v>
+        <v>16562</v>
       </c>
       <c r="AX2" t="n">
-        <v>16681</v>
+        <v>16561</v>
       </c>
       <c r="AY2" t="n">
-        <v>16590</v>
+        <v>16554</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16562</v>
+        <v>16712</v>
       </c>
       <c r="BA2" t="n">
-        <v>16561</v>
+        <v>16747</v>
       </c>
       <c r="BB2" t="n">
-        <v>16554</v>
+        <v>16780</v>
       </c>
       <c r="BC2" t="n">
-        <v>16712</v>
+        <v>16765</v>
       </c>
       <c r="BD2" t="n">
-        <v>16747</v>
+        <v>15895</v>
       </c>
       <c r="BE2" t="n">
-        <v>16780</v>
+        <v>15887</v>
       </c>
       <c r="BF2" t="n">
-        <v>16765</v>
+        <v>15627</v>
       </c>
       <c r="BG2" t="n">
-        <v>15895</v>
+        <v>10733</v>
       </c>
       <c r="BH2" t="n">
-        <v>15887</v>
+        <v>10607</v>
       </c>
       <c r="BI2" t="n">
-        <v>15627</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="3">
@@ -934,64 +934,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
         <v>77</v>
       </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L3" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N3" t="n">
+        <v>65</v>
+      </c>
+      <c r="O3" t="n">
         <v>70</v>
       </c>
-      <c r="O3" t="n">
-        <v>73</v>
-      </c>
       <c r="P3" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="n">
         <v>65</v>
       </c>
       <c r="R3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="S3" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="T3" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="U3" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="V3" t="n">
         <v>91</v>
@@ -1003,16 +1003,16 @@
         <v>91</v>
       </c>
       <c r="Y3" t="n">
-        <v>91</v>
+        <v>691</v>
       </c>
       <c r="Z3" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA3" t="n">
         <v>91</v>
       </c>
       <c r="AB3" t="n">
-        <v>691</v>
+        <v>92</v>
       </c>
       <c r="AC3" t="n">
         <v>92</v>
@@ -1021,97 +1021,97 @@
         <v>91</v>
       </c>
       <c r="AE3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AF3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>0.036</v>
       </c>
       <c r="AH3" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AI3" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.036</v>
+        <v>532</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>9306</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>5718</v>
       </c>
       <c r="AM3" t="n">
-        <v>532</v>
+        <v>1418</v>
       </c>
       <c r="AN3" t="n">
-        <v>9306</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>5718</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>272</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
         <v>3</v>
       </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>272</v>
-      </c>
-      <c r="AX3" t="n">
+      <c r="AZ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD3" t="n">
         <v>2</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BE3" t="n">
         <v>1</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>5</v>
-      </c>
       <c r="BF3" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="BG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
         <v>1</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1121,184 +1121,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>8</v>
       </c>
       <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>600</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3587</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>920</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>272</v>
+      </c>
+      <c r="AU4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" t="n">
-        <v>8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="BE4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="BF4" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG4" t="n">
         <v>1</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3587</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>920</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>272</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2</v>
-      </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1495,31 +1495,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>75</v>
       </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" t="n">
-        <v>77</v>
-      </c>
       <c r="H6" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>5220</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>5220</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2113,38 +2113,38 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>91</v>
       </c>
-      <c r="Y9" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>91</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -2448,157 +2448,157 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K11" t="n">
         <v>62</v>
       </c>
       <c r="L11" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" t="n">
         <v>62</v>
       </c>
       <c r="N11" t="n">
+        <v>63</v>
+      </c>
+      <c r="O11" t="n">
         <v>62</v>
       </c>
-      <c r="O11" t="n">
-        <v>65</v>
-      </c>
       <c r="P11" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="n">
         <v>62</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>63</v>
       </c>
       <c r="R11" t="n">
         <v>62</v>
       </c>
       <c r="S11" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="T11" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="U11" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>91</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>91</v>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AA11" t="n">
         <v>91</v>
       </c>
       <c r="AB11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="n">
         <v>91</v>
       </c>
       <c r="AE11" t="n">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="n">
-        <v>91</v>
+        <v>0.034</v>
       </c>
       <c r="AH11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>496</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>499</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>497</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>498</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
         <v>5</v>
       </c>
-      <c r="AI11" t="n">
-        <v>96</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>496</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>499</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>497</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>498</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AY11" t="n">
         <v>3</v>
       </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
         <v>5</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>3</v>
       </c>
-      <c r="BC11" t="n">
-        <v>4</v>
-      </c>
       <c r="BD11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
@@ -2635,40 +2635,40 @@
         <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P12" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R12" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
         <v>49</v>
@@ -2677,7 +2677,7 @@
         <v>49</v>
       </c>
       <c r="V12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W12" t="n">
         <v>49</v>
@@ -2707,94 +2707,94 @@
         <v>49</v>
       </c>
       <c r="AF12" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>0.053</v>
       </c>
       <c r="AH12" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AI12" t="n">
         <v>53</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.053</v>
+        <v>53</v>
       </c>
       <c r="AK12" t="n">
-        <v>53</v>
+        <v>2586</v>
       </c>
       <c r="AL12" t="n">
-        <v>53</v>
+        <v>2586</v>
       </c>
       <c r="AM12" t="n">
-        <v>53</v>
+        <v>3755</v>
       </c>
       <c r="AN12" t="n">
-        <v>2586</v>
+        <v>3844</v>
       </c>
       <c r="AO12" t="n">
-        <v>2586</v>
+        <v>3936</v>
       </c>
       <c r="AP12" t="n">
-        <v>3755</v>
+        <v>4026</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3844</v>
+        <v>4115</v>
       </c>
       <c r="AR12" t="n">
-        <v>3936</v>
+        <v>4204</v>
       </c>
       <c r="AS12" t="n">
-        <v>4026</v>
+        <v>4293</v>
       </c>
       <c r="AT12" t="n">
-        <v>4115</v>
+        <v>4382</v>
       </c>
       <c r="AU12" t="n">
-        <v>4204</v>
+        <v>4474</v>
       </c>
       <c r="AV12" t="n">
-        <v>4293</v>
+        <v>4509</v>
       </c>
       <c r="AW12" t="n">
-        <v>4382</v>
+        <v>4608</v>
       </c>
       <c r="AX12" t="n">
-        <v>4474</v>
+        <v>4724</v>
       </c>
       <c r="AY12" t="n">
-        <v>4509</v>
+        <v>4848</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4608</v>
+        <v>5129</v>
       </c>
       <c r="BA12" t="n">
-        <v>4724</v>
+        <v>5290</v>
       </c>
       <c r="BB12" t="n">
-        <v>4848</v>
+        <v>5447</v>
       </c>
       <c r="BC12" t="n">
-        <v>5129</v>
+        <v>5643</v>
       </c>
       <c r="BD12" t="n">
-        <v>5290</v>
+        <v>4816</v>
       </c>
       <c r="BE12" t="n">
-        <v>5447</v>
+        <v>4934</v>
       </c>
       <c r="BF12" t="n">
-        <v>5643</v>
+        <v>4765</v>
       </c>
       <c r="BG12" t="n">
-        <v>4816</v>
+        <v>31</v>
       </c>
       <c r="BH12" t="n">
-        <v>4934</v>
+        <v>31</v>
       </c>
       <c r="BI12" t="n">
-        <v>4765</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>2875</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>2965</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>3054</v>
       </c>
       <c r="AR20" t="n">
-        <v>2875</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2965</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>3054</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>28</v>
@@ -4318,40 +4318,40 @@
         <v>28</v>
       </c>
       <c r="H21" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J21" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L21" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P21" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R21" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T21" t="n">
         <v>49</v>
@@ -4360,7 +4360,7 @@
         <v>49</v>
       </c>
       <c r="V21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W21" t="n">
         <v>49</v>
@@ -4390,88 +4390,88 @@
         <v>49</v>
       </c>
       <c r="AF21" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AG21" t="n">
-        <v>49</v>
+        <v>0.053</v>
       </c>
       <c r="AH21" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AI21" t="n">
         <v>53</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.053</v>
+        <v>53</v>
       </c>
       <c r="AK21" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>2783</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2783</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1061</v>
+        <v>3143</v>
       </c>
       <c r="AS21" t="n">
-        <v>1061</v>
+        <v>3232</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>3321</v>
       </c>
       <c r="AU21" t="n">
-        <v>3143</v>
+        <v>3413</v>
       </c>
       <c r="AV21" t="n">
-        <v>3232</v>
+        <v>3503</v>
       </c>
       <c r="AW21" t="n">
-        <v>3321</v>
+        <v>3595</v>
       </c>
       <c r="AX21" t="n">
-        <v>3413</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>3503</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3595</v>
+        <v>4117</v>
       </c>
       <c r="BA21" t="n">
-        <v>1</v>
+        <v>4278</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>4435</v>
       </c>
       <c r="BC21" t="n">
-        <v>4117</v>
+        <v>4631</v>
       </c>
       <c r="BD21" t="n">
-        <v>4278</v>
+        <v>220</v>
       </c>
       <c r="BE21" t="n">
-        <v>4435</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>4631</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
@@ -4674,184 +4674,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10421</v>
+        <v>8090</v>
       </c>
       <c r="C23" t="n">
-        <v>8189</v>
+        <v>8041</v>
       </c>
       <c r="D23" t="n">
-        <v>8139</v>
+        <v>7990</v>
       </c>
       <c r="E23" t="n">
-        <v>8090</v>
+        <v>7941</v>
       </c>
       <c r="F23" t="n">
-        <v>8041</v>
+        <v>7892</v>
       </c>
       <c r="G23" t="n">
-        <v>7990</v>
+        <v>7843</v>
       </c>
       <c r="H23" t="n">
-        <v>7941</v>
+        <v>7793</v>
       </c>
       <c r="I23" t="n">
-        <v>7892</v>
+        <v>7744</v>
       </c>
       <c r="J23" t="n">
-        <v>7843</v>
+        <v>7695</v>
       </c>
       <c r="K23" t="n">
-        <v>7793</v>
+        <v>7645</v>
       </c>
       <c r="L23" t="n">
-        <v>7744</v>
+        <v>7596</v>
       </c>
       <c r="M23" t="n">
-        <v>7695</v>
+        <v>7547</v>
       </c>
       <c r="N23" t="n">
-        <v>7645</v>
+        <v>7497</v>
       </c>
       <c r="O23" t="n">
-        <v>7596</v>
+        <v>7448</v>
       </c>
       <c r="P23" t="n">
-        <v>7547</v>
+        <v>7399</v>
       </c>
       <c r="Q23" t="n">
-        <v>7497</v>
+        <v>7349</v>
       </c>
       <c r="R23" t="n">
-        <v>7448</v>
+        <v>7300</v>
       </c>
       <c r="S23" t="n">
-        <v>7399</v>
+        <v>7251</v>
       </c>
       <c r="T23" t="n">
-        <v>7349</v>
+        <v>7201</v>
       </c>
       <c r="U23" t="n">
-        <v>7300</v>
+        <v>7153</v>
       </c>
       <c r="V23" t="n">
-        <v>7251</v>
+        <v>7104</v>
       </c>
       <c r="W23" t="n">
-        <v>7201</v>
+        <v>7054</v>
       </c>
       <c r="X23" t="n">
-        <v>7153</v>
+        <v>7004</v>
       </c>
       <c r="Y23" t="n">
-        <v>7104</v>
+        <v>6955</v>
       </c>
       <c r="Z23" t="n">
-        <v>7054</v>
+        <v>7757</v>
       </c>
       <c r="AA23" t="n">
-        <v>7004</v>
+        <v>7686</v>
       </c>
       <c r="AB23" t="n">
-        <v>6955</v>
+        <v>7635</v>
       </c>
       <c r="AC23" t="n">
-        <v>7757</v>
+        <v>7564</v>
       </c>
       <c r="AD23" t="n">
-        <v>7686</v>
+        <v>7494</v>
       </c>
       <c r="AE23" t="n">
-        <v>7635</v>
+        <v>7424</v>
       </c>
       <c r="AF23" t="n">
-        <v>7564</v>
+        <v>7357</v>
       </c>
       <c r="AG23" t="n">
-        <v>7494</v>
+        <v>7.286</v>
       </c>
       <c r="AH23" t="n">
-        <v>7424</v>
+        <v>19925</v>
       </c>
       <c r="AI23" t="n">
-        <v>7357</v>
+        <v>19855</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7.286</v>
+        <v>19785</v>
       </c>
       <c r="AK23" t="n">
-        <v>19925</v>
+        <v>14099</v>
       </c>
       <c r="AL23" t="n">
-        <v>19855</v>
+        <v>13952</v>
       </c>
       <c r="AM23" t="n">
-        <v>19785</v>
+        <v>13806</v>
       </c>
       <c r="AN23" t="n">
-        <v>14099</v>
+        <v>13635</v>
       </c>
       <c r="AO23" t="n">
-        <v>13952</v>
+        <v>13488</v>
       </c>
       <c r="AP23" t="n">
-        <v>13806</v>
+        <v>13341</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13635</v>
+        <v>13195</v>
       </c>
       <c r="AR23" t="n">
-        <v>13488</v>
+        <v>13049</v>
       </c>
       <c r="AS23" t="n">
-        <v>13341</v>
+        <v>12902</v>
       </c>
       <c r="AT23" t="n">
-        <v>13195</v>
+        <v>12757</v>
       </c>
       <c r="AU23" t="n">
-        <v>13049</v>
+        <v>12205</v>
       </c>
       <c r="AV23" t="n">
-        <v>12902</v>
+        <v>12080</v>
       </c>
       <c r="AW23" t="n">
-        <v>12757</v>
+        <v>11954</v>
       </c>
       <c r="AX23" t="n">
-        <v>12205</v>
+        <v>11829</v>
       </c>
       <c r="AY23" t="n">
-        <v>12080</v>
+        <v>11703</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11954</v>
+        <v>11578</v>
       </c>
       <c r="BA23" t="n">
-        <v>11829</v>
+        <v>11453</v>
       </c>
       <c r="BB23" t="n">
-        <v>11703</v>
+        <v>11328</v>
       </c>
       <c r="BC23" t="n">
-        <v>11578</v>
+        <v>11119</v>
       </c>
       <c r="BD23" t="n">
-        <v>11453</v>
+        <v>11077</v>
       </c>
       <c r="BE23" t="n">
-        <v>11328</v>
+        <v>10952</v>
       </c>
       <c r="BF23" t="n">
-        <v>11119</v>
+        <v>10826</v>
       </c>
       <c r="BG23" t="n">
-        <v>11077</v>
+        <v>10701</v>
       </c>
       <c r="BH23" t="n">
-        <v>10952</v>
+        <v>10576</v>
       </c>
       <c r="BI23" t="n">
-        <v>10826</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="24">
@@ -4867,13 +4867,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4990,13 +4990,13 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14637</v>
+        <v>8204</v>
       </c>
       <c r="C26" t="n">
-        <v>8301</v>
+        <v>8146</v>
       </c>
       <c r="D26" t="n">
-        <v>8242</v>
+        <v>8097</v>
       </c>
       <c r="E26" t="n">
-        <v>8204</v>
+        <v>8047</v>
       </c>
       <c r="F26" t="n">
-        <v>8146</v>
+        <v>7998</v>
       </c>
       <c r="G26" t="n">
-        <v>8097</v>
+        <v>7947</v>
       </c>
       <c r="H26" t="n">
-        <v>8047</v>
+        <v>7896</v>
       </c>
       <c r="I26" t="n">
-        <v>7998</v>
+        <v>7847</v>
       </c>
       <c r="J26" t="n">
-        <v>7947</v>
+        <v>7798</v>
       </c>
       <c r="K26" t="n">
-        <v>7896</v>
+        <v>7760</v>
       </c>
       <c r="L26" t="n">
-        <v>7847</v>
+        <v>7713</v>
       </c>
       <c r="M26" t="n">
-        <v>7798</v>
+        <v>7663</v>
       </c>
       <c r="N26" t="n">
-        <v>7760</v>
+        <v>7609</v>
       </c>
       <c r="O26" t="n">
-        <v>7713</v>
+        <v>7565</v>
       </c>
       <c r="P26" t="n">
-        <v>7663</v>
+        <v>7520</v>
       </c>
       <c r="Q26" t="n">
-        <v>7609</v>
+        <v>7464</v>
       </c>
       <c r="R26" t="n">
-        <v>7565</v>
+        <v>7413</v>
       </c>
       <c r="S26" t="n">
-        <v>7520</v>
+        <v>7393</v>
       </c>
       <c r="T26" t="n">
-        <v>7464</v>
+        <v>7342</v>
       </c>
       <c r="U26" t="n">
-        <v>7413</v>
+        <v>7294</v>
       </c>
       <c r="V26" t="n">
-        <v>7393</v>
+        <v>7245</v>
       </c>
       <c r="W26" t="n">
-        <v>7342</v>
+        <v>7195</v>
       </c>
       <c r="X26" t="n">
-        <v>7294</v>
+        <v>7145</v>
       </c>
       <c r="Y26" t="n">
-        <v>7245</v>
+        <v>7696</v>
       </c>
       <c r="Z26" t="n">
-        <v>7195</v>
+        <v>7899</v>
       </c>
       <c r="AA26" t="n">
-        <v>7145</v>
+        <v>7827</v>
       </c>
       <c r="AB26" t="n">
-        <v>7696</v>
+        <v>7777</v>
       </c>
       <c r="AC26" t="n">
-        <v>7899</v>
+        <v>7706</v>
       </c>
       <c r="AD26" t="n">
-        <v>7827</v>
+        <v>7635</v>
       </c>
       <c r="AE26" t="n">
-        <v>7777</v>
+        <v>7570</v>
       </c>
       <c r="AF26" t="n">
-        <v>7706</v>
+        <v>7507</v>
       </c>
       <c r="AG26" t="n">
-        <v>7635</v>
+        <v>7.376</v>
       </c>
       <c r="AH26" t="n">
-        <v>7570</v>
+        <v>20014</v>
       </c>
       <c r="AI26" t="n">
-        <v>7507</v>
+        <v>19947</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.376</v>
+        <v>20371</v>
       </c>
       <c r="AK26" t="n">
-        <v>20014</v>
+        <v>25992</v>
       </c>
       <c r="AL26" t="n">
-        <v>19947</v>
+        <v>22257</v>
       </c>
       <c r="AM26" t="n">
-        <v>20371</v>
+        <v>18980</v>
       </c>
       <c r="AN26" t="n">
-        <v>25992</v>
+        <v>17480</v>
       </c>
       <c r="AO26" t="n">
-        <v>22257</v>
+        <v>17428</v>
       </c>
       <c r="AP26" t="n">
-        <v>18980</v>
+        <v>17368</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17480</v>
+        <v>17311</v>
       </c>
       <c r="AR26" t="n">
-        <v>17428</v>
+        <v>17254</v>
       </c>
       <c r="AS26" t="n">
-        <v>17368</v>
+        <v>17195</v>
       </c>
       <c r="AT26" t="n">
-        <v>17311</v>
+        <v>17411</v>
       </c>
       <c r="AU26" t="n">
-        <v>17254</v>
+        <v>16681</v>
       </c>
       <c r="AV26" t="n">
-        <v>17195</v>
+        <v>16590</v>
       </c>
       <c r="AW26" t="n">
-        <v>17411</v>
+        <v>16562</v>
       </c>
       <c r="AX26" t="n">
-        <v>16681</v>
+        <v>16561</v>
       </c>
       <c r="AY26" t="n">
-        <v>16590</v>
+        <v>16554</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16562</v>
+        <v>16712</v>
       </c>
       <c r="BA26" t="n">
-        <v>16561</v>
+        <v>16747</v>
       </c>
       <c r="BB26" t="n">
-        <v>16554</v>
+        <v>16780</v>
       </c>
       <c r="BC26" t="n">
-        <v>16712</v>
+        <v>16765</v>
       </c>
       <c r="BD26" t="n">
-        <v>16747</v>
+        <v>15895</v>
       </c>
       <c r="BE26" t="n">
-        <v>16780</v>
+        <v>15887</v>
       </c>
       <c r="BF26" t="n">
-        <v>16765</v>
+        <v>15627</v>
       </c>
       <c r="BG26" t="n">
-        <v>15895</v>
+        <v>10733</v>
       </c>
       <c r="BH26" t="n">
-        <v>15887</v>
+        <v>10607</v>
       </c>
       <c r="BI26" t="n">
-        <v>15627</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1273</v>
+        <v>302</v>
       </c>
       <c r="C27" t="n">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="D27" t="n">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="E27" t="n">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="F27" t="n">
+        <v>234</v>
+      </c>
+      <c r="G27" t="n">
+        <v>238</v>
+      </c>
+      <c r="H27" t="n">
+        <v>121</v>
+      </c>
+      <c r="I27" t="n">
+        <v>155</v>
+      </c>
+      <c r="J27" t="n">
+        <v>101</v>
+      </c>
+      <c r="K27" t="n">
+        <v>560</v>
+      </c>
+      <c r="L27" t="n">
+        <v>508</v>
+      </c>
+      <c r="M27" t="n">
+        <v>761</v>
+      </c>
+      <c r="N27" t="n">
+        <v>674</v>
+      </c>
+      <c r="O27" t="n">
+        <v>599</v>
+      </c>
+      <c r="P27" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>849</v>
+      </c>
+      <c r="R27" t="n">
+        <v>758</v>
+      </c>
+      <c r="S27" t="n">
+        <v>621</v>
+      </c>
+      <c r="T27" t="n">
+        <v>545</v>
+      </c>
+      <c r="U27" t="n">
+        <v>827</v>
+      </c>
+      <c r="V27" t="n">
+        <v>714</v>
+      </c>
+      <c r="W27" t="n">
+        <v>633</v>
+      </c>
+      <c r="X27" t="n">
+        <v>526</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>891</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>781</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>653</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>540</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>957</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>856</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>759</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>610</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>920</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>856</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>235</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>288</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1087</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1076</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>272</v>
+      </c>
+      <c r="AO27" t="n">
         <v>330</v>
       </c>
-      <c r="G27" t="n">
-        <v>214</v>
-      </c>
-      <c r="H27" t="n">
-        <v>228</v>
-      </c>
-      <c r="I27" t="n">
-        <v>234</v>
-      </c>
-      <c r="J27" t="n">
-        <v>238</v>
-      </c>
-      <c r="K27" t="n">
-        <v>121</v>
-      </c>
-      <c r="L27" t="n">
-        <v>155</v>
-      </c>
-      <c r="M27" t="n">
-        <v>101</v>
-      </c>
-      <c r="N27" t="n">
-        <v>560</v>
-      </c>
-      <c r="O27" t="n">
-        <v>508</v>
-      </c>
-      <c r="P27" t="n">
-        <v>761</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>674</v>
-      </c>
-      <c r="R27" t="n">
-        <v>599</v>
-      </c>
-      <c r="S27" t="n">
-        <v>487</v>
-      </c>
-      <c r="T27" t="n">
-        <v>849</v>
-      </c>
-      <c r="U27" t="n">
-        <v>758</v>
-      </c>
-      <c r="V27" t="n">
-        <v>621</v>
-      </c>
-      <c r="W27" t="n">
-        <v>545</v>
-      </c>
-      <c r="X27" t="n">
-        <v>827</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>714</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>633</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>526</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>891</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>781</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>653</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>540</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>957</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>856</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>759</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>610</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>920</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>856</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>235</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>288</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1087</v>
-      </c>
       <c r="AP27" t="n">
-        <v>1076</v>
+        <v>316</v>
       </c>
       <c r="AQ27" t="n">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="AR27" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AS27" t="n">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="AT27" t="n">
-        <v>310</v>
+        <v>437</v>
       </c>
       <c r="AU27" t="n">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="AV27" t="n">
-        <v>442</v>
+        <v>205</v>
       </c>
       <c r="AW27" t="n">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="AX27" t="n">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="AY27" t="n">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="AZ27" t="n">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="BA27" t="n">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="BB27" t="n">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="BC27" t="n">
-        <v>255</v>
+        <v>596</v>
       </c>
       <c r="BD27" t="n">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="BE27" t="n">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="BF27" t="n">
-        <v>596</v>
+        <v>474</v>
       </c>
       <c r="BG27" t="n">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="BH27" t="n">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="BI27" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28">
@@ -5627,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
@@ -5645,40 +5645,40 @@
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
         <v>9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8</v>
       </c>
       <c r="Z28" t="n">
         <v>8</v>
@@ -5687,31 +5687,31 @@
         <v>8</v>
       </c>
       <c r="AB28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC28" t="n">
         <v>9</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
         <v>8</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AG28" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AH28" t="n">
         <v>8</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.008</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>8</v>
@@ -5723,52 +5723,52 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
         <v>8</v>
       </c>
-      <c r="AO28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA28" t="n">
         <v>6</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>10</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>6</v>
@@ -5777,16 +5777,16 @@
         <v>7</v>
       </c>
       <c r="BF28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI28" t="n">
         <v>7</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C29" t="n">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="D29" t="n">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E29" t="n">
         <v>103</v>
       </c>
       <c r="F29" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G29" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H29" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="n">
         <v>3</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI29" t="n">
         <v>3</v>
       </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>0.014</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AR29" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="AT29" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AU29" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AV29" t="n">
         <v>54</v>
       </c>
       <c r="AW29" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AX29" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AY29" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AZ29" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="BA29" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="BB29" t="n">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="BC29" t="n">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="BD29" t="n">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="BE29" t="n">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="BF29" t="n">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="BG29" t="n">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="BH29" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="BI29" t="n">
-        <v>226</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
@@ -5983,184 +5983,184 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1142</v>
+        <v>197</v>
       </c>
       <c r="C30" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D30" t="n">
+        <v>110</v>
+      </c>
+      <c r="E30" t="n">
+        <v>104</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87</v>
+      </c>
+      <c r="G30" t="n">
+        <v>81</v>
+      </c>
+      <c r="H30" t="n">
+        <v>98</v>
+      </c>
+      <c r="I30" t="n">
+        <v>105</v>
+      </c>
+      <c r="J30" t="n">
+        <v>98</v>
+      </c>
+      <c r="K30" t="n">
+        <v>514</v>
+      </c>
+      <c r="L30" t="n">
+        <v>443</v>
+      </c>
+      <c r="M30" t="n">
+        <v>694</v>
+      </c>
+      <c r="N30" t="n">
+        <v>623</v>
+      </c>
+      <c r="O30" t="n">
+        <v>547</v>
+      </c>
+      <c r="P30" t="n">
+        <v>451</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>815</v>
+      </c>
+      <c r="R30" t="n">
+        <v>741</v>
+      </c>
+      <c r="S30" t="n">
+        <v>613</v>
+      </c>
+      <c r="T30" t="n">
+        <v>526</v>
+      </c>
+      <c r="U30" t="n">
+        <v>796</v>
+      </c>
+      <c r="V30" t="n">
+        <v>682</v>
+      </c>
+      <c r="W30" t="n">
+        <v>600</v>
+      </c>
+      <c r="X30" t="n">
+        <v>498</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>879</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>770</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>642</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>527</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>943</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>843</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>720</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>592</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>899</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>845</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>214</v>
       </c>
-      <c r="E30" t="n">
-        <v>197</v>
-      </c>
-      <c r="F30" t="n">
-        <v>226</v>
-      </c>
-      <c r="G30" t="n">
-        <v>110</v>
-      </c>
-      <c r="H30" t="n">
-        <v>104</v>
-      </c>
-      <c r="I30" t="n">
-        <v>87</v>
-      </c>
-      <c r="J30" t="n">
-        <v>81</v>
-      </c>
-      <c r="K30" t="n">
-        <v>98</v>
-      </c>
-      <c r="L30" t="n">
-        <v>105</v>
-      </c>
-      <c r="M30" t="n">
-        <v>98</v>
-      </c>
-      <c r="N30" t="n">
-        <v>514</v>
-      </c>
-      <c r="O30" t="n">
-        <v>443</v>
-      </c>
-      <c r="P30" t="n">
-        <v>694</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>623</v>
-      </c>
-      <c r="R30" t="n">
-        <v>547</v>
-      </c>
-      <c r="S30" t="n">
-        <v>451</v>
-      </c>
-      <c r="T30" t="n">
-        <v>815</v>
-      </c>
-      <c r="U30" t="n">
-        <v>741</v>
-      </c>
-      <c r="V30" t="n">
-        <v>613</v>
-      </c>
-      <c r="W30" t="n">
-        <v>526</v>
-      </c>
-      <c r="X30" t="n">
-        <v>796</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>682</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>498</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>879</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>770</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>642</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>527</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>943</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>843</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>720</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>592</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1.009</v>
-      </c>
       <c r="AK30" t="n">
-        <v>899</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="n">
-        <v>845</v>
+        <v>1064</v>
       </c>
       <c r="AM30" t="n">
-        <v>214</v>
+        <v>1060</v>
       </c>
       <c r="AN30" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO30" t="n">
-        <v>1064</v>
+        <v>316</v>
       </c>
       <c r="AP30" t="n">
-        <v>1060</v>
+        <v>293</v>
       </c>
       <c r="AQ30" t="n">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AR30" t="n">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="AS30" t="n">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="AT30" t="n">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="AU30" t="n">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="AV30" t="n">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="AW30" t="n">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="AX30" t="n">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="AY30" t="n">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="AZ30" t="n">
+        <v>171</v>
+      </c>
+      <c r="BA30" t="n">
         <v>245</v>
       </c>
-      <c r="BA30" t="n">
-        <v>207</v>
-      </c>
       <c r="BB30" t="n">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="BC30" t="n">
-        <v>171</v>
+        <v>413</v>
       </c>
       <c r="BD30" t="n">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="BE30" t="n">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="BF30" t="n">
-        <v>413</v>
+        <v>239</v>
       </c>
       <c r="BG30" t="n">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="BH30" t="n">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="BI30" t="n">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31">
@@ -6170,7 +6170,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6188,61 +6188,61 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L31" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O31" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P31" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Q31" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="R31" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="S31" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>5</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>3</v>
@@ -6251,19 +6251,19 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -6731,31 +6731,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" t="n">
-        <v>3</v>
-      </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="H34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -7292,184 +7292,184 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26491</v>
+        <v>30195</v>
       </c>
       <c r="C37" t="n">
-        <v>28577</v>
+        <v>30891</v>
       </c>
       <c r="D37" t="n">
-        <v>29354</v>
+        <v>32074</v>
       </c>
       <c r="E37" t="n">
-        <v>30195</v>
+        <v>32849</v>
       </c>
       <c r="F37" t="n">
-        <v>30891</v>
+        <v>33667</v>
       </c>
       <c r="G37" t="n">
-        <v>32074</v>
+        <v>34509</v>
       </c>
       <c r="H37" t="n">
-        <v>32849</v>
+        <v>35284</v>
       </c>
       <c r="I37" t="n">
-        <v>33667</v>
+        <v>36151</v>
       </c>
       <c r="J37" t="n">
-        <v>34509</v>
+        <v>37151</v>
       </c>
       <c r="K37" t="n">
-        <v>35284</v>
+        <v>35487</v>
       </c>
       <c r="L37" t="n">
-        <v>36151</v>
+        <v>37046</v>
       </c>
       <c r="M37" t="n">
-        <v>37151</v>
+        <v>37447</v>
       </c>
       <c r="N37" t="n">
-        <v>35487</v>
+        <v>38762</v>
       </c>
       <c r="O37" t="n">
-        <v>37046</v>
+        <v>39979</v>
       </c>
       <c r="P37" t="n">
-        <v>37447</v>
+        <v>41225</v>
       </c>
       <c r="Q37" t="n">
-        <v>38762</v>
+        <v>42104</v>
       </c>
       <c r="R37" t="n">
-        <v>39979</v>
+        <v>43421</v>
       </c>
       <c r="S37" t="n">
-        <v>41225</v>
+        <v>44717</v>
       </c>
       <c r="T37" t="n">
-        <v>42104</v>
+        <v>46084</v>
       </c>
       <c r="U37" t="n">
-        <v>43421</v>
+        <v>46987</v>
       </c>
       <c r="V37" t="n">
-        <v>44717</v>
+        <v>48441</v>
       </c>
       <c r="W37" t="n">
-        <v>46084</v>
+        <v>50183</v>
       </c>
       <c r="X37" t="n">
-        <v>46987</v>
+        <v>51618</v>
       </c>
       <c r="Y37" t="n">
-        <v>48441</v>
+        <v>53534</v>
       </c>
       <c r="Z37" t="n">
-        <v>50183</v>
+        <v>55647</v>
       </c>
       <c r="AA37" t="n">
-        <v>51618</v>
+        <v>57598</v>
       </c>
       <c r="AB37" t="n">
-        <v>53534</v>
+        <v>59647</v>
       </c>
       <c r="AC37" t="n">
-        <v>55647</v>
+        <v>61264</v>
       </c>
       <c r="AD37" t="n">
-        <v>57598</v>
+        <v>63519</v>
       </c>
       <c r="AE37" t="n">
-        <v>59647</v>
+        <v>65835</v>
       </c>
       <c r="AF37" t="n">
-        <v>61264</v>
+        <v>68240</v>
       </c>
       <c r="AG37" t="n">
-        <v>63519</v>
+        <v>70.083</v>
       </c>
       <c r="AH37" t="n">
-        <v>65835</v>
+        <v>72523</v>
       </c>
       <c r="AI37" t="n">
-        <v>68240</v>
+        <v>75085</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70.083</v>
+        <v>78518</v>
       </c>
       <c r="AK37" t="n">
-        <v>72523</v>
+        <v>79379</v>
       </c>
       <c r="AL37" t="n">
-        <v>75085</v>
+        <v>78634</v>
       </c>
       <c r="AM37" t="n">
-        <v>78518</v>
+        <v>77803</v>
       </c>
       <c r="AN37" t="n">
-        <v>79379</v>
+        <v>78749</v>
       </c>
       <c r="AO37" t="n">
-        <v>78634</v>
+        <v>81242</v>
       </c>
       <c r="AP37" t="n">
-        <v>77803</v>
+        <v>83755</v>
       </c>
       <c r="AQ37" t="n">
-        <v>78749</v>
+        <v>86257</v>
       </c>
       <c r="AR37" t="n">
-        <v>81242</v>
+        <v>88873</v>
       </c>
       <c r="AS37" t="n">
-        <v>83755</v>
+        <v>91225</v>
       </c>
       <c r="AT37" t="n">
-        <v>86257</v>
+        <v>93471</v>
       </c>
       <c r="AU37" t="n">
-        <v>88873</v>
+        <v>95373</v>
       </c>
       <c r="AV37" t="n">
-        <v>91225</v>
+        <v>97443</v>
       </c>
       <c r="AW37" t="n">
-        <v>93471</v>
+        <v>99982</v>
       </c>
       <c r="AX37" t="n">
-        <v>95373</v>
+        <v>102729</v>
       </c>
       <c r="AY37" t="n">
-        <v>97443</v>
+        <v>105622</v>
       </c>
       <c r="AZ37" t="n">
-        <v>99982</v>
+        <v>108733</v>
       </c>
       <c r="BA37" t="n">
-        <v>102729</v>
+        <v>112003</v>
       </c>
       <c r="BB37" t="n">
-        <v>105622</v>
+        <v>115690</v>
       </c>
       <c r="BC37" t="n">
-        <v>108733</v>
+        <v>119651</v>
       </c>
       <c r="BD37" t="n">
-        <v>112003</v>
+        <v>120192</v>
       </c>
       <c r="BE37" t="n">
-        <v>115690</v>
+        <v>124446</v>
       </c>
       <c r="BF37" t="n">
-        <v>119651</v>
+        <v>128443</v>
       </c>
       <c r="BG37" t="n">
-        <v>120192</v>
+        <v>127819</v>
       </c>
       <c r="BH37" t="n">
-        <v>124446</v>
+        <v>132165</v>
       </c>
       <c r="BI37" t="n">
-        <v>128443</v>
+        <v>136376</v>
       </c>
     </row>
     <row r="38">
@@ -7479,148 +7479,148 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E38" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="G38" t="n">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="H38" t="n">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="I38" t="n">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="J38" t="n">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="K38" t="n">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="L38" t="n">
-        <v>149</v>
+        <v>427</v>
       </c>
       <c r="M38" t="n">
-        <v>237</v>
+        <v>579</v>
       </c>
       <c r="N38" t="n">
-        <v>287</v>
+        <v>661</v>
       </c>
       <c r="O38" t="n">
-        <v>427</v>
+        <v>721</v>
       </c>
       <c r="P38" t="n">
-        <v>579</v>
+        <v>824</v>
       </c>
       <c r="Q38" t="n">
-        <v>661</v>
+        <v>976</v>
       </c>
       <c r="R38" t="n">
-        <v>721</v>
+        <v>1195</v>
       </c>
       <c r="S38" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>976</v>
+        <v>1613</v>
       </c>
       <c r="U38" t="n">
-        <v>1195</v>
+        <v>1657</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="W38" t="n">
-        <v>1613</v>
+        <v>2116</v>
       </c>
       <c r="X38" t="n">
-        <v>1657</v>
+        <v>2340</v>
       </c>
       <c r="Y38" t="n">
-        <v>1904</v>
+        <v>3217</v>
       </c>
       <c r="Z38" t="n">
-        <v>2116</v>
+        <v>3849</v>
       </c>
       <c r="AA38" t="n">
-        <v>2340</v>
+        <v>4217</v>
       </c>
       <c r="AB38" t="n">
-        <v>3217</v>
+        <v>4567</v>
       </c>
       <c r="AC38" t="n">
-        <v>3849</v>
+        <v>4906</v>
       </c>
       <c r="AD38" t="n">
-        <v>4217</v>
+        <v>5289</v>
       </c>
       <c r="AE38" t="n">
-        <v>4567</v>
+        <v>56235</v>
       </c>
       <c r="AF38" t="n">
-        <v>4906</v>
+        <v>6087</v>
       </c>
       <c r="AG38" t="n">
-        <v>5289</v>
+        <v>6.499</v>
       </c>
       <c r="AH38" t="n">
-        <v>56235</v>
+        <v>6910</v>
       </c>
       <c r="AI38" t="n">
-        <v>6087</v>
+        <v>7292</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6.499</v>
+        <v>8088</v>
       </c>
       <c r="AK38" t="n">
-        <v>6910</v>
+        <v>7186</v>
       </c>
       <c r="AL38" t="n">
-        <v>7292</v>
+        <v>3933</v>
       </c>
       <c r="AM38" t="n">
-        <v>8088</v>
+        <v>852</v>
       </c>
       <c r="AN38" t="n">
-        <v>7186</v>
+        <v>233</v>
       </c>
       <c r="AO38" t="n">
-        <v>3933</v>
+        <v>309</v>
       </c>
       <c r="AP38" t="n">
-        <v>852</v>
+        <v>406</v>
       </c>
       <c r="AQ38" t="n">
-        <v>233</v>
+        <v>481</v>
       </c>
       <c r="AR38" t="n">
-        <v>309</v>
+        <v>549</v>
       </c>
       <c r="AS38" t="n">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="AT38" t="n">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="AU38" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="AX38" t="n">
         <v>0</v>
@@ -7629,34 +7629,34 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="BA38" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="BB38" t="n">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="BC38" t="n">
-        <v>546</v>
+        <v>1053</v>
       </c>
       <c r="BD38" t="n">
-        <v>676</v>
+        <v>167</v>
       </c>
       <c r="BE38" t="n">
-        <v>795</v>
+        <v>431</v>
       </c>
       <c r="BF38" t="n">
-        <v>1053</v>
+        <v>516</v>
       </c>
       <c r="BG38" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="BH38" t="n">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="BI38" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7666,184 +7666,184 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20863</v>
+        <v>23224</v>
       </c>
       <c r="C39" t="n">
-        <v>21627</v>
+        <v>23952</v>
       </c>
       <c r="D39" t="n">
-        <v>22408</v>
+        <v>24713</v>
       </c>
       <c r="E39" t="n">
-        <v>23224</v>
+        <v>25468</v>
       </c>
       <c r="F39" t="n">
-        <v>23952</v>
+        <v>26252</v>
       </c>
       <c r="G39" t="n">
-        <v>24713</v>
+        <v>27077</v>
       </c>
       <c r="H39" t="n">
-        <v>25468</v>
+        <v>28006</v>
       </c>
       <c r="I39" t="n">
-        <v>26252</v>
+        <v>28862</v>
       </c>
       <c r="J39" t="n">
-        <v>27077</v>
+        <v>29782</v>
       </c>
       <c r="K39" t="n">
-        <v>28006</v>
+        <v>30810</v>
       </c>
       <c r="L39" t="n">
-        <v>28862</v>
+        <v>31749</v>
       </c>
       <c r="M39" t="n">
-        <v>29782</v>
+        <v>32714</v>
       </c>
       <c r="N39" t="n">
-        <v>30810</v>
+        <v>33812</v>
       </c>
       <c r="O39" t="n">
-        <v>31749</v>
+        <v>34912</v>
       </c>
       <c r="P39" t="n">
-        <v>32714</v>
+        <v>36007</v>
       </c>
       <c r="Q39" t="n">
-        <v>33812</v>
+        <v>37008</v>
       </c>
       <c r="R39" t="n">
-        <v>34912</v>
+        <v>38038</v>
       </c>
       <c r="S39" t="n">
-        <v>36007</v>
+        <v>40538</v>
       </c>
       <c r="T39" t="n">
-        <v>37008</v>
+        <v>40183</v>
       </c>
       <c r="U39" t="n">
-        <v>38038</v>
+        <v>41433</v>
       </c>
       <c r="V39" t="n">
-        <v>40538</v>
+        <v>42585</v>
       </c>
       <c r="W39" t="n">
-        <v>40183</v>
+        <v>43771</v>
       </c>
       <c r="X39" t="n">
-        <v>41433</v>
+        <v>44988</v>
       </c>
       <c r="Y39" t="n">
-        <v>42585</v>
+        <v>46297</v>
       </c>
       <c r="Z39" t="n">
-        <v>43771</v>
+        <v>47703</v>
       </c>
       <c r="AA39" t="n">
-        <v>44988</v>
+        <v>49213</v>
       </c>
       <c r="AB39" t="n">
-        <v>46297</v>
+        <v>50834</v>
       </c>
       <c r="AC39" t="n">
-        <v>47703</v>
+        <v>52574</v>
       </c>
       <c r="AD39" t="n">
-        <v>49213</v>
+        <v>54374</v>
       </c>
       <c r="AE39" t="n">
-        <v>50834</v>
+        <v>5673</v>
       </c>
       <c r="AF39" t="n">
-        <v>52574</v>
+        <v>58160</v>
       </c>
       <c r="AG39" t="n">
-        <v>54374</v>
+        <v>60.15</v>
       </c>
       <c r="AH39" t="n">
-        <v>5673</v>
+        <v>62132</v>
       </c>
       <c r="AI39" t="n">
-        <v>58160</v>
+        <v>64258</v>
       </c>
       <c r="AJ39" t="n">
-        <v>60.15</v>
+        <v>66272</v>
       </c>
       <c r="AK39" t="n">
-        <v>62132</v>
+        <v>68092</v>
       </c>
       <c r="AL39" t="n">
-        <v>64258</v>
+        <v>70596</v>
       </c>
       <c r="AM39" t="n">
-        <v>66272</v>
+        <v>72842</v>
       </c>
       <c r="AN39" t="n">
-        <v>68092</v>
+        <v>75218</v>
       </c>
       <c r="AO39" t="n">
-        <v>70596</v>
+        <v>77701</v>
       </c>
       <c r="AP39" t="n">
-        <v>72842</v>
+        <v>80114</v>
       </c>
       <c r="AQ39" t="n">
-        <v>75218</v>
+        <v>82537</v>
       </c>
       <c r="AR39" t="n">
-        <v>77701</v>
+        <v>84933</v>
       </c>
       <c r="AS39" t="n">
-        <v>80114</v>
+        <v>87315</v>
       </c>
       <c r="AT39" t="n">
-        <v>82537</v>
+        <v>89731</v>
       </c>
       <c r="AU39" t="n">
-        <v>84933</v>
+        <v>92040</v>
       </c>
       <c r="AV39" t="n">
-        <v>87315</v>
+        <v>94608</v>
       </c>
       <c r="AW39" t="n">
-        <v>89731</v>
+        <v>97104</v>
       </c>
       <c r="AX39" t="n">
-        <v>92040</v>
+        <v>99735</v>
       </c>
       <c r="AY39" t="n">
-        <v>94608</v>
+        <v>102479</v>
       </c>
       <c r="AZ39" t="n">
-        <v>97104</v>
+        <v>105413</v>
       </c>
       <c r="BA39" t="n">
-        <v>99735</v>
+        <v>108637</v>
       </c>
       <c r="BB39" t="n">
-        <v>102479</v>
+        <v>112201</v>
       </c>
       <c r="BC39" t="n">
-        <v>105413</v>
+        <v>115901</v>
       </c>
       <c r="BD39" t="n">
-        <v>108637</v>
+        <v>119778</v>
       </c>
       <c r="BE39" t="n">
-        <v>112201</v>
+        <v>123838</v>
       </c>
       <c r="BF39" t="n">
-        <v>115901</v>
+        <v>127746</v>
       </c>
       <c r="BG39" t="n">
-        <v>119778</v>
+        <v>127635</v>
       </c>
       <c r="BH39" t="n">
-        <v>123838</v>
+        <v>131979</v>
       </c>
       <c r="BI39" t="n">
-        <v>127746</v>
+        <v>136252</v>
       </c>
     </row>
     <row r="40">
@@ -7853,31 +7853,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5530</v>
+        <v>6896</v>
       </c>
       <c r="C40" t="n">
-        <v>6901</v>
+        <v>6842</v>
       </c>
       <c r="D40" t="n">
-        <v>6896</v>
+        <v>7238</v>
       </c>
       <c r="E40" t="n">
-        <v>6896</v>
+        <v>7236</v>
       </c>
       <c r="F40" t="n">
-        <v>6842</v>
+        <v>7234</v>
       </c>
       <c r="G40" t="n">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="H40" t="n">
-        <v>7236</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>7234</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7237</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -7928,109 +7928,109 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>4246</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>3784</v>
       </c>
       <c r="AD40" t="n">
-        <v>4168</v>
+        <v>3856</v>
       </c>
       <c r="AE40" t="n">
-        <v>4246</v>
+        <v>3927</v>
       </c>
       <c r="AF40" t="n">
-        <v>3784</v>
+        <v>3993</v>
       </c>
       <c r="AG40" t="n">
-        <v>3856</v>
+        <v>3.434</v>
       </c>
       <c r="AH40" t="n">
-        <v>3927</v>
+        <v>3481</v>
       </c>
       <c r="AI40" t="n">
-        <v>3993</v>
+        <v>3535</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3.434</v>
+        <v>4158</v>
       </c>
       <c r="AK40" t="n">
-        <v>3481</v>
+        <v>4101</v>
       </c>
       <c r="AL40" t="n">
-        <v>3535</v>
+        <v>4105</v>
       </c>
       <c r="AM40" t="n">
-        <v>4158</v>
+        <v>4109</v>
       </c>
       <c r="AN40" t="n">
-        <v>4101</v>
+        <v>3298</v>
       </c>
       <c r="AO40" t="n">
-        <v>4105</v>
+        <v>3232</v>
       </c>
       <c r="AP40" t="n">
-        <v>4109</v>
+        <v>3235</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3298</v>
+        <v>3239</v>
       </c>
       <c r="AR40" t="n">
-        <v>3232</v>
+        <v>3391</v>
       </c>
       <c r="AS40" t="n">
-        <v>3235</v>
+        <v>3308</v>
       </c>
       <c r="AT40" t="n">
-        <v>3239</v>
+        <v>3333</v>
       </c>
       <c r="AU40" t="n">
-        <v>3391</v>
+        <v>3333</v>
       </c>
       <c r="AV40" t="n">
-        <v>3308</v>
+        <v>2835</v>
       </c>
       <c r="AW40" t="n">
-        <v>3333</v>
+        <v>2878</v>
       </c>
       <c r="AX40" t="n">
-        <v>3333</v>
+        <v>2994</v>
       </c>
       <c r="AY40" t="n">
-        <v>2835</v>
+        <v>3143</v>
       </c>
       <c r="AZ40" t="n">
-        <v>2878</v>
+        <v>2774</v>
       </c>
       <c r="BA40" t="n">
-        <v>2994</v>
+        <v>2690</v>
       </c>
       <c r="BB40" t="n">
-        <v>3143</v>
+        <v>2694</v>
       </c>
       <c r="BC40" t="n">
-        <v>2774</v>
+        <v>2697</v>
       </c>
       <c r="BD40" t="n">
-        <v>2690</v>
+        <v>247</v>
       </c>
       <c r="BE40" t="n">
-        <v>2694</v>
+        <v>177</v>
       </c>
       <c r="BF40" t="n">
-        <v>2697</v>
+        <v>181</v>
       </c>
       <c r="BG40" t="n">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="BH40" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="BI40" t="n">
-        <v>181</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -8432,70 +8432,70 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7164</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7140</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>7132</v>
       </c>
       <c r="K43" t="n">
-        <v>7164</v>
+        <v>4390</v>
       </c>
       <c r="L43" t="n">
-        <v>7140</v>
+        <v>4870</v>
       </c>
       <c r="M43" t="n">
-        <v>7132</v>
+        <v>4154</v>
       </c>
       <c r="N43" t="n">
-        <v>4390</v>
+        <v>4289</v>
       </c>
       <c r="O43" t="n">
-        <v>4870</v>
+        <v>4346</v>
       </c>
       <c r="P43" t="n">
-        <v>4154</v>
+        <v>4394</v>
       </c>
       <c r="Q43" t="n">
-        <v>4289</v>
+        <v>4120</v>
       </c>
       <c r="R43" t="n">
-        <v>4346</v>
+        <v>4188</v>
       </c>
       <c r="S43" t="n">
-        <v>4394</v>
+        <v>4179</v>
       </c>
       <c r="T43" t="n">
-        <v>4120</v>
+        <v>4288</v>
       </c>
       <c r="U43" t="n">
-        <v>4188</v>
+        <v>3897</v>
       </c>
       <c r="V43" t="n">
-        <v>4179</v>
+        <v>3952</v>
       </c>
       <c r="W43" t="n">
-        <v>4288</v>
+        <v>4296</v>
       </c>
       <c r="X43" t="n">
-        <v>3897</v>
+        <v>4290</v>
       </c>
       <c r="Y43" t="n">
-        <v>3952</v>
+        <v>4020</v>
       </c>
       <c r="Z43" t="n">
-        <v>4296</v>
+        <v>4095</v>
       </c>
       <c r="AA43" t="n">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>4020</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>4095</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-13127</v>
+        <v>-22293</v>
       </c>
       <c r="C47" t="n">
-        <v>-20678</v>
+        <v>-23075</v>
       </c>
       <c r="D47" t="n">
-        <v>-21461</v>
+        <v>-24191</v>
       </c>
       <c r="E47" t="n">
-        <v>-22293</v>
+        <v>-25030</v>
       </c>
       <c r="F47" t="n">
-        <v>-23075</v>
+        <v>-25903</v>
       </c>
       <c r="G47" t="n">
-        <v>-24191</v>
+        <v>-26800</v>
       </c>
       <c r="H47" t="n">
-        <v>-25030</v>
+        <v>-27509</v>
       </c>
       <c r="I47" t="n">
-        <v>-25903</v>
+        <v>-28459</v>
       </c>
       <c r="J47" t="n">
-        <v>-26800</v>
+        <v>-29454</v>
       </c>
       <c r="K47" t="n">
-        <v>-27509</v>
+        <v>-28287</v>
       </c>
       <c r="L47" t="n">
-        <v>-28459</v>
+        <v>-29841</v>
       </c>
       <c r="M47" t="n">
-        <v>-29454</v>
+        <v>-30545</v>
       </c>
       <c r="N47" t="n">
-        <v>-28287</v>
+        <v>-31827</v>
       </c>
       <c r="O47" t="n">
-        <v>-29841</v>
+        <v>-33013</v>
       </c>
       <c r="P47" t="n">
-        <v>-30545</v>
+        <v>-34192</v>
       </c>
       <c r="Q47" t="n">
-        <v>-31827</v>
+        <v>-35489</v>
       </c>
       <c r="R47" t="n">
-        <v>-33013</v>
+        <v>-36766</v>
       </c>
       <c r="S47" t="n">
-        <v>-34192</v>
+        <v>-37945</v>
       </c>
       <c r="T47" t="n">
-        <v>-35489</v>
+        <v>-39287</v>
       </c>
       <c r="U47" t="n">
-        <v>-36766</v>
+        <v>-40520</v>
       </c>
       <c r="V47" t="n">
-        <v>-37945</v>
+        <v>-41910</v>
       </c>
       <c r="W47" t="n">
-        <v>-39287</v>
+        <v>-43621</v>
       </c>
       <c r="X47" t="n">
-        <v>-40520</v>
+        <v>-44999</v>
       </c>
       <c r="Y47" t="n">
-        <v>-41910</v>
+        <v>-46729</v>
       </c>
       <c r="Z47" t="n">
-        <v>-43621</v>
+        <v>-48529</v>
       </c>
       <c r="AA47" t="n">
-        <v>-44999</v>
+        <v>-50424</v>
       </c>
       <c r="AB47" t="n">
-        <v>-46729</v>
+        <v>-52410</v>
       </c>
       <c r="AC47" t="n">
-        <v>-48529</v>
+        <v>-54515</v>
       </c>
       <c r="AD47" t="n">
-        <v>-50424</v>
+        <v>-56740</v>
       </c>
       <c r="AE47" t="n">
-        <v>-52410</v>
+        <v>-59024</v>
       </c>
       <c r="AF47" t="n">
-        <v>-54515</v>
+        <v>-61343</v>
       </c>
       <c r="AG47" t="n">
-        <v>-56740</v>
+        <v>-63.738</v>
       </c>
       <c r="AH47" t="n">
-        <v>-59024</v>
+        <v>-53429</v>
       </c>
       <c r="AI47" t="n">
-        <v>-61343</v>
+        <v>-55994</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-63.738</v>
+        <v>-58382</v>
       </c>
       <c r="AK47" t="n">
-        <v>-53429</v>
+        <v>-53675</v>
       </c>
       <c r="AL47" t="n">
-        <v>-55994</v>
+        <v>-57464</v>
       </c>
       <c r="AM47" t="n">
-        <v>-58382</v>
+        <v>-59899</v>
       </c>
       <c r="AN47" t="n">
-        <v>-53675</v>
+        <v>-61541</v>
       </c>
       <c r="AO47" t="n">
-        <v>-57464</v>
+        <v>-64144</v>
       </c>
       <c r="AP47" t="n">
-        <v>-59899</v>
+        <v>-66703</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-61541</v>
+        <v>-69256</v>
       </c>
       <c r="AR47" t="n">
-        <v>-64144</v>
+        <v>-71948</v>
       </c>
       <c r="AS47" t="n">
-        <v>-66703</v>
+        <v>-74472</v>
       </c>
       <c r="AT47" t="n">
-        <v>-69256</v>
+        <v>-76497</v>
       </c>
       <c r="AU47" t="n">
-        <v>-71948</v>
+        <v>-79089</v>
       </c>
       <c r="AV47" t="n">
-        <v>-74472</v>
+        <v>-81058</v>
       </c>
       <c r="AW47" t="n">
-        <v>-76497</v>
+        <v>-83724</v>
       </c>
       <c r="AX47" t="n">
-        <v>-79089</v>
+        <v>-86445</v>
       </c>
       <c r="AY47" t="n">
-        <v>-81058</v>
+        <v>-89326</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-83724</v>
+        <v>-92276</v>
       </c>
       <c r="BA47" t="n">
-        <v>-86445</v>
+        <v>-95617</v>
       </c>
       <c r="BB47" t="n">
-        <v>-89326</v>
+        <v>-99247</v>
       </c>
       <c r="BC47" t="n">
-        <v>-92276</v>
+        <v>-103482</v>
       </c>
       <c r="BD47" t="n">
-        <v>-95617</v>
+        <v>-104806</v>
       </c>
       <c r="BE47" t="n">
-        <v>-99247</v>
+        <v>-108962</v>
       </c>
       <c r="BF47" t="n">
-        <v>-103482</v>
+        <v>-113290</v>
       </c>
       <c r="BG47" t="n">
-        <v>-104806</v>
+        <v>-117537</v>
       </c>
       <c r="BH47" t="n">
-        <v>-108962</v>
+        <v>-121983</v>
       </c>
       <c r="BI47" t="n">
-        <v>-113290</v>
+        <v>-126362</v>
       </c>
     </row>
     <row r="48">
@@ -9442,7 +9442,7 @@
         <v>44070</v>
       </c>
       <c r="AG48" t="n">
-        <v>44070</v>
+        <v>44.07</v>
       </c>
       <c r="AH48" t="n">
         <v>44070</v>
@@ -9451,7 +9451,7 @@
         <v>44070</v>
       </c>
       <c r="AJ48" t="n">
-        <v>44.07</v>
+        <v>44070</v>
       </c>
       <c r="AK48" t="n">
         <v>44070</v>
@@ -10097,184 +10097,184 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-57197</v>
+        <v>-66363</v>
       </c>
       <c r="C52" t="n">
-        <v>-64748</v>
+        <v>-67145</v>
       </c>
       <c r="D52" t="n">
-        <v>-65531</v>
+        <v>-68261</v>
       </c>
       <c r="E52" t="n">
-        <v>-66363</v>
+        <v>-69100</v>
       </c>
       <c r="F52" t="n">
-        <v>-67145</v>
+        <v>-69973</v>
       </c>
       <c r="G52" t="n">
-        <v>-68261</v>
+        <v>-70870</v>
       </c>
       <c r="H52" t="n">
-        <v>-69100</v>
+        <v>-71579</v>
       </c>
       <c r="I52" t="n">
-        <v>-69973</v>
+        <v>-72529</v>
       </c>
       <c r="J52" t="n">
-        <v>-70870</v>
+        <v>-73524</v>
       </c>
       <c r="K52" t="n">
-        <v>-71579</v>
+        <v>-72357</v>
       </c>
       <c r="L52" t="n">
-        <v>-72529</v>
+        <v>-73911</v>
       </c>
       <c r="M52" t="n">
-        <v>-73524</v>
+        <v>-74615</v>
       </c>
       <c r="N52" t="n">
-        <v>-72357</v>
+        <v>-75897</v>
       </c>
       <c r="O52" t="n">
-        <v>-73911</v>
+        <v>-77083</v>
       </c>
       <c r="P52" t="n">
-        <v>-74615</v>
+        <v>-78262</v>
       </c>
       <c r="Q52" t="n">
-        <v>-75897</v>
+        <v>-79559</v>
       </c>
       <c r="R52" t="n">
-        <v>-77083</v>
+        <v>-80836</v>
       </c>
       <c r="S52" t="n">
-        <v>-78262</v>
+        <v>-82015</v>
       </c>
       <c r="T52" t="n">
-        <v>-79559</v>
+        <v>-83357</v>
       </c>
       <c r="U52" t="n">
-        <v>-80836</v>
+        <v>-84590</v>
       </c>
       <c r="V52" t="n">
-        <v>-82015</v>
+        <v>-85980</v>
       </c>
       <c r="W52" t="n">
-        <v>-83357</v>
+        <v>-87691</v>
       </c>
       <c r="X52" t="n">
-        <v>-84590</v>
+        <v>-89069</v>
       </c>
       <c r="Y52" t="n">
-        <v>-85980</v>
+        <v>-90799</v>
       </c>
       <c r="Z52" t="n">
-        <v>-87691</v>
+        <v>-92599</v>
       </c>
       <c r="AA52" t="n">
-        <v>-89069</v>
+        <v>-94494</v>
       </c>
       <c r="AB52" t="n">
-        <v>-90799</v>
+        <v>-96480</v>
       </c>
       <c r="AC52" t="n">
-        <v>-92599</v>
+        <v>-98585</v>
       </c>
       <c r="AD52" t="n">
-        <v>-94494</v>
+        <v>-100810</v>
       </c>
       <c r="AE52" t="n">
-        <v>-96480</v>
+        <v>-103094</v>
       </c>
       <c r="AF52" t="n">
-        <v>-98585</v>
+        <v>-105413</v>
       </c>
       <c r="AG52" t="n">
-        <v>-100810</v>
+        <v>-107.808</v>
       </c>
       <c r="AH52" t="n">
-        <v>-103094</v>
+        <v>-97499</v>
       </c>
       <c r="AI52" t="n">
-        <v>-105413</v>
+        <v>-100064</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-107.808</v>
+        <v>-102452</v>
       </c>
       <c r="AK52" t="n">
-        <v>-97499</v>
+        <v>-97745</v>
       </c>
       <c r="AL52" t="n">
-        <v>-100064</v>
+        <v>-101534</v>
       </c>
       <c r="AM52" t="n">
-        <v>-102452</v>
+        <v>-103969</v>
       </c>
       <c r="AN52" t="n">
-        <v>-97745</v>
+        <v>-105611</v>
       </c>
       <c r="AO52" t="n">
-        <v>-101534</v>
+        <v>-108214</v>
       </c>
       <c r="AP52" t="n">
-        <v>-103969</v>
+        <v>-110773</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-105611</v>
+        <v>-113326</v>
       </c>
       <c r="AR52" t="n">
-        <v>-108214</v>
+        <v>-116018</v>
       </c>
       <c r="AS52" t="n">
-        <v>-110773</v>
+        <v>-118542</v>
       </c>
       <c r="AT52" t="n">
-        <v>-113326</v>
+        <v>-120567</v>
       </c>
       <c r="AU52" t="n">
-        <v>-116018</v>
+        <v>-123159</v>
       </c>
       <c r="AV52" t="n">
-        <v>-118542</v>
+        <v>-125128</v>
       </c>
       <c r="AW52" t="n">
-        <v>-120567</v>
+        <v>-127794</v>
       </c>
       <c r="AX52" t="n">
-        <v>-123159</v>
+        <v>-130515</v>
       </c>
       <c r="AY52" t="n">
-        <v>-125128</v>
+        <v>-133396</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-127794</v>
+        <v>-136346</v>
       </c>
       <c r="BA52" t="n">
-        <v>-130515</v>
+        <v>-139687.008</v>
       </c>
       <c r="BB52" t="n">
-        <v>-133396</v>
+        <v>-143316.992</v>
       </c>
       <c r="BC52" t="n">
-        <v>-136346</v>
+        <v>-147552</v>
       </c>
       <c r="BD52" t="n">
-        <v>-139687.008</v>
+        <v>-148876</v>
       </c>
       <c r="BE52" t="n">
-        <v>-143316.992</v>
+        <v>-153032</v>
       </c>
       <c r="BF52" t="n">
-        <v>-147552</v>
+        <v>-157360</v>
       </c>
       <c r="BG52" t="n">
-        <v>-148876</v>
+        <v>-161607.008</v>
       </c>
       <c r="BH52" t="n">
-        <v>-153032</v>
+        <v>-166052.992</v>
       </c>
       <c r="BI52" t="n">
-        <v>-157360</v>
+        <v>-170432</v>
       </c>
     </row>
     <row r="53">
@@ -11046,15 +11046,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11115,7 +11109,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -11129,15 +11123,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11198,7 +11186,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -11366,16 +11354,16 @@
         <v>0</v>
       </c>
       <c r="BF59" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BG59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI59" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -11572,7 +11560,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -11740,16 +11728,16 @@
         <v>0</v>
       </c>
       <c r="BF61" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BG61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI61" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -11946,184 +11934,184 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-2525</v>
+        <v>-73</v>
       </c>
       <c r="C63" t="n">
-        <v>-95</v>
+        <v>-81</v>
       </c>
       <c r="D63" t="n">
-        <v>-123</v>
+        <v>-83</v>
       </c>
       <c r="E63" t="n">
-        <v>-73</v>
+        <v>-94</v>
       </c>
       <c r="F63" t="n">
-        <v>-81</v>
+        <v>-84</v>
       </c>
       <c r="G63" t="n">
-        <v>-83</v>
+        <v>-99</v>
       </c>
       <c r="H63" t="n">
-        <v>-94</v>
+        <v>-86</v>
       </c>
       <c r="I63" t="n">
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="J63" t="n">
+        <v>-93</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-150</v>
+      </c>
+      <c r="L63" t="n">
         <v>-99</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
+        <v>-92</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-102</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-101</v>
+      </c>
+      <c r="P63" t="n">
         <v>-86</v>
       </c>
-      <c r="L63" t="n">
-        <v>-86</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-93</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-150</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-99</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
+        <v>-78</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-127</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-97</v>
+      </c>
+      <c r="T63" t="n">
         <v>-92</v>
       </c>
-      <c r="Q63" t="n">
-        <v>-102</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-101</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-86</v>
-      </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>-78</v>
       </c>
-      <c r="U63" t="n">
-        <v>-127</v>
-      </c>
       <c r="V63" t="n">
-        <v>-97</v>
+        <v>-129</v>
       </c>
       <c r="W63" t="n">
-        <v>-92</v>
+        <v>-88</v>
       </c>
       <c r="X63" t="n">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="Y63" t="n">
-        <v>-129</v>
+        <v>-113</v>
       </c>
       <c r="Z63" t="n">
-        <v>-88</v>
+        <v>-199</v>
       </c>
       <c r="AA63" t="n">
-        <v>-90</v>
+        <v>-176</v>
       </c>
       <c r="AB63" t="n">
-        <v>-113</v>
+        <v>-131</v>
       </c>
       <c r="AC63" t="n">
+        <v>-120</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-160</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-275</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-140</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-151</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-348.79</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-328</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-629</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-219</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-549</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-196</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-217</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-196</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-367</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-167</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-315</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-221</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-210</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>-212</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>-215</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>-208</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>-207</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>-217</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>-659</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>-246</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>-209</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>-301</v>
+      </c>
+      <c r="BF63" t="n">
         <v>-199</v>
       </c>
-      <c r="AD63" t="n">
-        <v>-176</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-131</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-120</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-160</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-275</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-140</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-151</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-348.79</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-328</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-629</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-219</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-549</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-196</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-217</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-196</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-367</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-167</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-315</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-221</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-210</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-212</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-215</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-208</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-207</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-217</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-659</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-246</v>
-      </c>
       <c r="BG63" t="n">
-        <v>-209</v>
+        <v>-174</v>
       </c>
       <c r="BH63" t="n">
-        <v>-301</v>
+        <v>-187</v>
       </c>
       <c r="BI63" t="n">
-        <v>-199</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="64">
@@ -12138,9 +12126,15 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -12317,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -12326,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -12398,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>12710</v>
       </c>
       <c r="AI65" t="n">
         <v>0</v>
@@ -12407,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="AK65" t="n">
-        <v>12710</v>
+        <v>8112</v>
       </c>
       <c r="AL65" t="n">
         <v>0</v>
@@ -12416,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>8112</v>
+        <v>6395</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
@@ -12425,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>6395</v>
+        <v>0</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -12434,22 +12428,22 @@
         <v>0</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="AU65" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="AW65" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="AX65" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>599</v>
+        <v>62</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
@@ -12458,10 +12452,10 @@
         <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BD65" t="n">
         <v>0</v>
@@ -12470,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BG65" t="n">
         <v>0</v>
@@ -12863,184 +12857,184 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1064</v>
+        <v>-709</v>
       </c>
       <c r="C68" t="n">
-        <v>-688</v>
+        <v>-1035</v>
       </c>
       <c r="D68" t="n">
-        <v>-709</v>
+        <v>-756</v>
       </c>
       <c r="E68" t="n">
-        <v>-709</v>
+        <v>-779</v>
       </c>
       <c r="F68" t="n">
-        <v>-1035</v>
+        <v>-813</v>
       </c>
       <c r="G68" t="n">
-        <v>-756</v>
+        <v>-839</v>
       </c>
       <c r="H68" t="n">
-        <v>-779</v>
+        <v>-864</v>
       </c>
       <c r="I68" t="n">
-        <v>-813</v>
+        <v>-864</v>
       </c>
       <c r="J68" t="n">
-        <v>-839</v>
+        <v>-902</v>
       </c>
       <c r="K68" t="n">
-        <v>-864</v>
+        <v>-3382</v>
       </c>
       <c r="L68" t="n">
-        <v>-864</v>
+        <v>-1455</v>
       </c>
       <c r="M68" t="n">
-        <v>-902</v>
+        <v>-1010</v>
       </c>
       <c r="N68" t="n">
-        <v>-3382</v>
+        <v>-1180</v>
       </c>
       <c r="O68" t="n">
-        <v>-1455</v>
+        <v>-1085</v>
       </c>
       <c r="P68" t="n">
-        <v>-1010</v>
+        <v>-1093</v>
       </c>
       <c r="Q68" t="n">
-        <v>-1180</v>
+        <v>-1219</v>
       </c>
       <c r="R68" t="n">
-        <v>-1085</v>
+        <v>-1150</v>
       </c>
       <c r="S68" t="n">
-        <v>-1093</v>
+        <v>-1082</v>
       </c>
       <c r="T68" t="n">
-        <v>-1219</v>
+        <v>-1250</v>
       </c>
       <c r="U68" t="n">
-        <v>-1150</v>
+        <v>-1156</v>
       </c>
       <c r="V68" t="n">
-        <v>-1082</v>
+        <v>-1260</v>
       </c>
       <c r="W68" t="n">
-        <v>-1250</v>
+        <v>-1326</v>
       </c>
       <c r="X68" t="n">
-        <v>-1156</v>
+        <v>-1289</v>
       </c>
       <c r="Y68" t="n">
-        <v>-1260</v>
+        <v>-1613</v>
       </c>
       <c r="Z68" t="n">
-        <v>-1326</v>
+        <v>-1602</v>
       </c>
       <c r="AA68" t="n">
-        <v>-1289</v>
+        <v>-1719</v>
       </c>
       <c r="AB68" t="n">
-        <v>-1613</v>
+        <v>-1854</v>
       </c>
       <c r="AC68" t="n">
-        <v>-1602</v>
+        <v>-1985</v>
       </c>
       <c r="AD68" t="n">
-        <v>-1719</v>
+        <v>-2065</v>
       </c>
       <c r="AE68" t="n">
-        <v>-1854</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>-1985</v>
+        <v>-4328</v>
       </c>
       <c r="AG68" t="n">
-        <v>-2065</v>
+        <v>-2.185</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>-2260</v>
       </c>
       <c r="AI68" t="n">
-        <v>-4328</v>
+        <v>-2408</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-2.185</v>
+        <v>-4438.815</v>
       </c>
       <c r="AK68" t="n">
-        <v>-2260</v>
+        <v>-2399</v>
       </c>
       <c r="AL68" t="n">
-        <v>-2408</v>
+        <v>-2348</v>
       </c>
       <c r="AM68" t="n">
-        <v>-4438.815</v>
+        <v>-2215</v>
       </c>
       <c r="AN68" t="n">
-        <v>-2399</v>
+        <v>-3543</v>
       </c>
       <c r="AO68" t="n">
-        <v>-2348</v>
+        <v>-2407</v>
       </c>
       <c r="AP68" t="n">
-        <v>-2215</v>
+        <v>-2342</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-3543</v>
+        <v>-2354</v>
       </c>
       <c r="AR68" t="n">
-        <v>-2407</v>
+        <v>-2328</v>
       </c>
       <c r="AS68" t="n">
-        <v>-2342</v>
+        <v>-2320</v>
       </c>
       <c r="AT68" t="n">
-        <v>-2354</v>
+        <v>-2382</v>
       </c>
       <c r="AU68" t="n">
-        <v>-2328</v>
+        <v>-2393</v>
       </c>
       <c r="AV68" t="n">
-        <v>-2320</v>
+        <v>-2347</v>
       </c>
       <c r="AW68" t="n">
-        <v>-2382</v>
+        <v>-2460</v>
       </c>
       <c r="AX68" t="n">
-        <v>-2393</v>
+        <v>-2500</v>
       </c>
       <c r="AY68" t="n">
-        <v>-2347</v>
+        <v>-2806</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-2460</v>
+        <v>-3132</v>
       </c>
       <c r="BA68" t="n">
-        <v>-2500</v>
+        <v>-3420</v>
       </c>
       <c r="BB68" t="n">
-        <v>-2806</v>
+        <v>-3578</v>
       </c>
       <c r="BC68" t="n">
-        <v>-3132</v>
+        <v>-3521</v>
       </c>
       <c r="BD68" t="n">
-        <v>-3420</v>
+        <v>-3947</v>
       </c>
       <c r="BE68" t="n">
-        <v>-3578</v>
+        <v>-4027</v>
       </c>
       <c r="BF68" t="n">
-        <v>-3521</v>
+        <v>-4063</v>
       </c>
       <c r="BG68" t="n">
-        <v>-3947</v>
+        <v>-4279</v>
       </c>
       <c r="BH68" t="n">
-        <v>-4027</v>
+        <v>-4199</v>
       </c>
       <c r="BI68" t="n">
-        <v>-4063</v>
+        <v>-4377</v>
       </c>
     </row>
     <row r="69">
@@ -13161,73 +13155,73 @@
         <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AP69" t="n">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="AQ69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR69" t="n">
         <v>89</v>
       </c>
-      <c r="AR69" t="n">
+      <c r="AS69" t="n">
+        <v>88</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV69" t="n">
         <v>92</v>
       </c>
-      <c r="AS69" t="n">
-        <v>89</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>90</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>89</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>88</v>
-      </c>
       <c r="AW69" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AX69" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AY69" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AZ69" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="BA69" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="BB69" t="n">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="BC69" t="n">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="BD69" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="BE69" t="n">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="BF69" t="n">
-        <v>417</v>
+        <v>75</v>
       </c>
       <c r="BG69" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="BH69" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="BI69" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -13237,184 +13231,184 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1064</v>
+        <v>-709</v>
       </c>
       <c r="C70" t="n">
-        <v>-688</v>
+        <v>-1035</v>
       </c>
       <c r="D70" t="n">
-        <v>-709</v>
+        <v>-756</v>
       </c>
       <c r="E70" t="n">
-        <v>-709</v>
+        <v>-779</v>
       </c>
       <c r="F70" t="n">
-        <v>-1035</v>
+        <v>-813</v>
       </c>
       <c r="G70" t="n">
-        <v>-756</v>
+        <v>-839</v>
       </c>
       <c r="H70" t="n">
-        <v>-779</v>
+        <v>-864</v>
       </c>
       <c r="I70" t="n">
-        <v>-813</v>
+        <v>-864</v>
       </c>
       <c r="J70" t="n">
-        <v>-839</v>
+        <v>-902</v>
       </c>
       <c r="K70" t="n">
-        <v>-864</v>
+        <v>-3382</v>
       </c>
       <c r="L70" t="n">
-        <v>-864</v>
+        <v>-1455</v>
       </c>
       <c r="M70" t="n">
-        <v>-902</v>
+        <v>-1010</v>
       </c>
       <c r="N70" t="n">
-        <v>-3382</v>
+        <v>-1180</v>
       </c>
       <c r="O70" t="n">
-        <v>-1455</v>
+        <v>-1085</v>
       </c>
       <c r="P70" t="n">
-        <v>-1010</v>
+        <v>-1093</v>
       </c>
       <c r="Q70" t="n">
-        <v>-1180</v>
+        <v>-1219</v>
       </c>
       <c r="R70" t="n">
-        <v>-1085</v>
+        <v>-1150</v>
       </c>
       <c r="S70" t="n">
-        <v>-1093</v>
+        <v>-1082</v>
       </c>
       <c r="T70" t="n">
-        <v>-1219</v>
+        <v>-1250</v>
       </c>
       <c r="U70" t="n">
-        <v>-1150</v>
+        <v>-1156</v>
       </c>
       <c r="V70" t="n">
-        <v>-1082</v>
+        <v>-1260</v>
       </c>
       <c r="W70" t="n">
-        <v>-1250</v>
+        <v>-1326</v>
       </c>
       <c r="X70" t="n">
-        <v>-1156</v>
+        <v>-1289</v>
       </c>
       <c r="Y70" t="n">
-        <v>-1260</v>
+        <v>-1613</v>
       </c>
       <c r="Z70" t="n">
-        <v>-1326</v>
+        <v>-1602</v>
       </c>
       <c r="AA70" t="n">
-        <v>-1289</v>
+        <v>-1719</v>
       </c>
       <c r="AB70" t="n">
-        <v>-1613</v>
+        <v>-1854</v>
       </c>
       <c r="AC70" t="n">
-        <v>-1602</v>
+        <v>-1985</v>
       </c>
       <c r="AD70" t="n">
-        <v>-1719</v>
+        <v>-2065</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1854</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>-1985</v>
+        <v>-4328</v>
       </c>
       <c r="AG70" t="n">
-        <v>-2065</v>
+        <v>-2.185</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>-2260</v>
       </c>
       <c r="AI70" t="n">
-        <v>-4328</v>
+        <v>-2408</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-2.185</v>
+        <v>-4438.815</v>
       </c>
       <c r="AK70" t="n">
-        <v>-2260</v>
+        <v>-2399</v>
       </c>
       <c r="AL70" t="n">
+        <v>-2348</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>-2379</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-3632</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>-2499</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>-2431</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>-2444</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>-2417</v>
+      </c>
+      <c r="AS70" t="n">
         <v>-2408</v>
       </c>
-      <c r="AM70" t="n">
-        <v>-4438.815</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>-2399</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>-2348</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>-2379</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-3632</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-2499</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-2431</v>
-      </c>
       <c r="AT70" t="n">
-        <v>-2444</v>
+        <v>-2471</v>
       </c>
       <c r="AU70" t="n">
-        <v>-2417</v>
+        <v>-2484</v>
       </c>
       <c r="AV70" t="n">
-        <v>-2408</v>
+        <v>-2439</v>
       </c>
       <c r="AW70" t="n">
-        <v>-2471</v>
+        <v>-2552</v>
       </c>
       <c r="AX70" t="n">
-        <v>-2484</v>
+        <v>-2597</v>
       </c>
       <c r="AY70" t="n">
-        <v>-2439</v>
+        <v>-2918</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-2552</v>
+        <v>-3256</v>
       </c>
       <c r="BA70" t="n">
-        <v>-2597</v>
+        <v>-3559</v>
       </c>
       <c r="BB70" t="n">
-        <v>-2918</v>
+        <v>-3812</v>
       </c>
       <c r="BC70" t="n">
-        <v>-3256</v>
+        <v>-3938</v>
       </c>
       <c r="BD70" t="n">
-        <v>-3559</v>
+        <v>-4096</v>
       </c>
       <c r="BE70" t="n">
-        <v>-3812</v>
+        <v>-4185</v>
       </c>
       <c r="BF70" t="n">
-        <v>-3938</v>
+        <v>-4138</v>
       </c>
       <c r="BG70" t="n">
-        <v>-4096</v>
+        <v>-4279</v>
       </c>
       <c r="BH70" t="n">
-        <v>-4185</v>
+        <v>-4199</v>
       </c>
       <c r="BI70" t="n">
-        <v>-4138</v>
+        <v>-4377</v>
       </c>
     </row>
     <row r="71">
@@ -13424,7 +13418,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -13438,15 +13432,9 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -13521,15 +13509,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -13590,7 +13572,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -13604,15 +13586,9 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -13673,184 +13649,184 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-3589</v>
+        <v>-782</v>
       </c>
       <c r="C74" t="n">
-        <v>-783</v>
+        <v>-1116</v>
       </c>
       <c r="D74" t="n">
-        <v>-832</v>
+        <v>-839</v>
       </c>
       <c r="E74" t="n">
-        <v>-782</v>
+        <v>-873</v>
       </c>
       <c r="F74" t="n">
-        <v>-1116</v>
+        <v>-897</v>
       </c>
       <c r="G74" t="n">
-        <v>-839</v>
+        <v>-811</v>
       </c>
       <c r="H74" t="n">
-        <v>-873</v>
+        <v>-950</v>
       </c>
       <c r="I74" t="n">
-        <v>-897</v>
+        <v>-950</v>
       </c>
       <c r="J74" t="n">
-        <v>-811</v>
+        <v>-995</v>
       </c>
       <c r="K74" t="n">
-        <v>-950</v>
+        <v>-3532</v>
       </c>
       <c r="L74" t="n">
-        <v>-950</v>
+        <v>-1554</v>
       </c>
       <c r="M74" t="n">
-        <v>-995</v>
+        <v>-1102</v>
       </c>
       <c r="N74" t="n">
-        <v>-3532</v>
+        <v>-1282</v>
       </c>
       <c r="O74" t="n">
-        <v>-1554</v>
+        <v>-1186</v>
       </c>
       <c r="P74" t="n">
-        <v>-1102</v>
+        <v>-1179</v>
       </c>
       <c r="Q74" t="n">
-        <v>-1282</v>
+        <v>-1297</v>
       </c>
       <c r="R74" t="n">
-        <v>-1186</v>
+        <v>-1277</v>
       </c>
       <c r="S74" t="n">
         <v>-1179</v>
       </c>
       <c r="T74" t="n">
-        <v>-1297</v>
+        <v>-1342</v>
       </c>
       <c r="U74" t="n">
-        <v>-1277</v>
+        <v>-1234</v>
       </c>
       <c r="V74" t="n">
-        <v>-1179</v>
+        <v>-1389</v>
       </c>
       <c r="W74" t="n">
-        <v>-1342</v>
+        <v>-1414</v>
       </c>
       <c r="X74" t="n">
-        <v>-1234</v>
+        <v>-1379</v>
       </c>
       <c r="Y74" t="n">
-        <v>-1389</v>
+        <v>-1726</v>
       </c>
       <c r="Z74" t="n">
-        <v>-1414</v>
+        <v>-1801</v>
       </c>
       <c r="AA74" t="n">
-        <v>-1379</v>
+        <v>-1895</v>
       </c>
       <c r="AB74" t="n">
-        <v>-1726</v>
+        <v>-1985</v>
       </c>
       <c r="AC74" t="n">
-        <v>-1801</v>
+        <v>-2105</v>
       </c>
       <c r="AD74" t="n">
-        <v>-1895</v>
+        <v>-2225</v>
       </c>
       <c r="AE74" t="n">
-        <v>-1985</v>
+        <v>0</v>
       </c>
       <c r="AF74" t="n">
-        <v>-2105</v>
+        <v>-4603</v>
       </c>
       <c r="AG74" t="n">
-        <v>-2225</v>
+        <v>-2.395</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>10310</v>
       </c>
       <c r="AI74" t="n">
-        <v>-4603</v>
+        <v>-2559</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-2.395</v>
+        <v>-4787.605</v>
       </c>
       <c r="AK74" t="n">
-        <v>10310</v>
+        <v>5385</v>
       </c>
       <c r="AL74" t="n">
+        <v>-2977</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>-2434</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>2303</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>-2603</v>
+      </c>
+      <c r="AP74" t="n">
         <v>-2559</v>
       </c>
-      <c r="AM74" t="n">
-        <v>-4787.605</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>5385</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-2977</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>-2434</v>
-      </c>
       <c r="AQ74" t="n">
-        <v>2303</v>
+        <v>-2550</v>
       </c>
       <c r="AR74" t="n">
-        <v>-2603</v>
+        <v>-2695</v>
       </c>
       <c r="AS74" t="n">
-        <v>-2559</v>
+        <v>-2487</v>
       </c>
       <c r="AT74" t="n">
-        <v>-2550</v>
+        <v>-2017</v>
       </c>
       <c r="AU74" t="n">
-        <v>-2695</v>
+        <v>-2589</v>
       </c>
       <c r="AV74" t="n">
-        <v>-2487</v>
+        <v>-1958</v>
       </c>
       <c r="AW74" t="n">
-        <v>-2017</v>
+        <v>-2672</v>
       </c>
       <c r="AX74" t="n">
-        <v>-2589</v>
+        <v>-2715</v>
       </c>
       <c r="AY74" t="n">
-        <v>-1958</v>
+        <v>-2952</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-2672</v>
+        <v>-3339</v>
       </c>
       <c r="BA74" t="n">
-        <v>-2715</v>
+        <v>-3637</v>
       </c>
       <c r="BB74" t="n">
-        <v>-2952</v>
+        <v>-4237</v>
       </c>
       <c r="BC74" t="n">
-        <v>-3339</v>
+        <v>-3731</v>
       </c>
       <c r="BD74" t="n">
-        <v>-3637</v>
+        <v>-4156</v>
       </c>
       <c r="BE74" t="n">
-        <v>-4237</v>
+        <v>-4328</v>
       </c>
       <c r="BF74" t="n">
-        <v>-3731</v>
+        <v>-4246</v>
       </c>
       <c r="BG74" t="n">
-        <v>-4156</v>
+        <v>-4447</v>
       </c>
       <c r="BH74" t="n">
-        <v>-4328</v>
+        <v>-4381</v>
       </c>
       <c r="BI74" t="n">
-        <v>-4246</v>
+        <v>-4555</v>
       </c>
     </row>
     <row r="75">
@@ -13968,22 +13944,22 @@
         <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>0</v>
+        <v>-813</v>
       </c>
       <c r="AM75" t="n">
         <v>0</v>
       </c>
       <c r="AN75" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="AO75" t="n">
-        <v>-813</v>
+        <v>0</v>
       </c>
       <c r="AP75" t="n">
         <v>0</v>
       </c>
       <c r="AQ75" t="n">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -14248,15 +14224,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -14331,15 +14301,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -14467,184 +14431,184 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-3589</v>
+        <v>-782</v>
       </c>
       <c r="C80" t="n">
-        <v>-783</v>
+        <v>-1116</v>
       </c>
       <c r="D80" t="n">
-        <v>-832</v>
+        <v>-839</v>
       </c>
       <c r="E80" t="n">
-        <v>-782</v>
+        <v>-873</v>
       </c>
       <c r="F80" t="n">
-        <v>-1116</v>
+        <v>-897</v>
       </c>
       <c r="G80" t="n">
-        <v>-839</v>
+        <v>-811</v>
       </c>
       <c r="H80" t="n">
-        <v>-873</v>
+        <v>-950</v>
       </c>
       <c r="I80" t="n">
-        <v>-897</v>
+        <v>-950</v>
       </c>
       <c r="J80" t="n">
-        <v>-811</v>
+        <v>-995</v>
       </c>
       <c r="K80" t="n">
-        <v>-950</v>
+        <v>-3532</v>
       </c>
       <c r="L80" t="n">
-        <v>-950</v>
+        <v>-1554</v>
       </c>
       <c r="M80" t="n">
-        <v>-995</v>
+        <v>-1102</v>
       </c>
       <c r="N80" t="n">
-        <v>-3532</v>
+        <v>-1282</v>
       </c>
       <c r="O80" t="n">
-        <v>-1554</v>
+        <v>-1186</v>
       </c>
       <c r="P80" t="n">
-        <v>-1102</v>
+        <v>-1179</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1282</v>
+        <v>-1297</v>
       </c>
       <c r="R80" t="n">
-        <v>-1186</v>
+        <v>-1277</v>
       </c>
       <c r="S80" t="n">
         <v>-1179</v>
       </c>
       <c r="T80" t="n">
-        <v>-1297</v>
+        <v>-1342</v>
       </c>
       <c r="U80" t="n">
-        <v>-1277</v>
+        <v>-1234</v>
       </c>
       <c r="V80" t="n">
-        <v>-1179</v>
+        <v>-1389</v>
       </c>
       <c r="W80" t="n">
-        <v>-1342</v>
+        <v>-1414</v>
       </c>
       <c r="X80" t="n">
-        <v>-1234</v>
+        <v>-1379</v>
       </c>
       <c r="Y80" t="n">
-        <v>-1389</v>
+        <v>-1726</v>
       </c>
       <c r="Z80" t="n">
-        <v>-1414</v>
+        <v>-1801</v>
       </c>
       <c r="AA80" t="n">
-        <v>-1379</v>
+        <v>-1895</v>
       </c>
       <c r="AB80" t="n">
-        <v>-1726</v>
+        <v>-1985</v>
       </c>
       <c r="AC80" t="n">
-        <v>-1801</v>
+        <v>-2105</v>
       </c>
       <c r="AD80" t="n">
-        <v>-1895</v>
+        <v>-2225</v>
       </c>
       <c r="AE80" t="n">
-        <v>-1985</v>
+        <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>-2105</v>
+        <v>-4603</v>
       </c>
       <c r="AG80" t="n">
-        <v>-2225</v>
+        <v>-2.395</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>10310</v>
       </c>
       <c r="AI80" t="n">
-        <v>-4603</v>
+        <v>-2559</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-2.395</v>
+        <v>-4787.605</v>
       </c>
       <c r="AK80" t="n">
-        <v>10310</v>
+        <v>5385</v>
       </c>
       <c r="AL80" t="n">
+        <v>-3790</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>-2434</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3116</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>-2603</v>
+      </c>
+      <c r="AP80" t="n">
         <v>-2559</v>
       </c>
-      <c r="AM80" t="n">
-        <v>-4787.605</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>5385</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>-3790</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>-2434</v>
-      </c>
       <c r="AQ80" t="n">
-        <v>3116</v>
+        <v>-2550</v>
       </c>
       <c r="AR80" t="n">
-        <v>-2603</v>
+        <v>-2695</v>
       </c>
       <c r="AS80" t="n">
-        <v>-2559</v>
+        <v>-2487</v>
       </c>
       <c r="AT80" t="n">
-        <v>-2550</v>
+        <v>-2017</v>
       </c>
       <c r="AU80" t="n">
-        <v>-2695</v>
+        <v>-2589</v>
       </c>
       <c r="AV80" t="n">
-        <v>-2487</v>
+        <v>-1958</v>
       </c>
       <c r="AW80" t="n">
-        <v>-2017</v>
+        <v>-2672</v>
       </c>
       <c r="AX80" t="n">
-        <v>-2589</v>
+        <v>-2715</v>
       </c>
       <c r="AY80" t="n">
-        <v>-1958</v>
+        <v>-2952</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-2672</v>
+        <v>-3339</v>
       </c>
       <c r="BA80" t="n">
-        <v>-2715</v>
+        <v>-3637</v>
       </c>
       <c r="BB80" t="n">
-        <v>-2952</v>
+        <v>-4237</v>
       </c>
       <c r="BC80" t="n">
-        <v>-3339</v>
+        <v>-3731</v>
       </c>
       <c r="BD80" t="n">
-        <v>-3637</v>
+        <v>-4156</v>
       </c>
       <c r="BE80" t="n">
-        <v>-4237</v>
+        <v>-4328</v>
       </c>
       <c r="BF80" t="n">
-        <v>-3731</v>
+        <v>-4246</v>
       </c>
       <c r="BG80" t="n">
-        <v>-4156</v>
+        <v>-4447</v>
       </c>
       <c r="BH80" t="n">
-        <v>-4328</v>
+        <v>-4381</v>
       </c>
       <c r="BI80" t="n">
-        <v>-4246</v>
+        <v>-4555</v>
       </c>
     </row>
   </sheetData>
